--- a/Referanser/Analyse.xlsx
+++ b/Referanser/Analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margitsorensen/Documents/Master i treningsfysiologi/R-studio/Arbeidskrav-4/Referanser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7703AE1E-D7E1-5F49-9293-41CDA5BB3022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D101B-85A5-D44E-9D85-ADAADAE0F7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{6F9D939E-665E-804C-BE85-27ADE6F2420C}"/>
   </bookViews>
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8619CE95-CFBB-844E-9122-70CEC1C35FE3}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
